--- a/Ubigeo.xlsx
+++ b/Ubigeo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryliacruz/Documentos/12 PUCP-Docencia/R ladies/Provincias/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryliacruz/Documentos/GitHub/TallerRLadiesLima/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC88A6E-3AA7-334A-8D17-AF4F9A85E5D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C5B44C-B87A-7045-A758-D61E620034CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="1640" windowWidth="26840" windowHeight="14660" xr2:uid="{6653968F-E9B1-7C41-AE4F-D37EC0478B43}"/>
+    <workbookView xWindow="1960" yWindow="1000" windowWidth="26840" windowHeight="14660" xr2:uid="{6653968F-E9B1-7C41-AE4F-D37EC0478B43}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -888,9 +888,6 @@
     <t>1606</t>
   </si>
   <si>
-    <t>DATEM DEL MARAÑON</t>
-  </si>
-  <si>
     <t>1607</t>
   </si>
   <si>
@@ -1206,14 +1203,17 @@
     <t>2504</t>
   </si>
   <si>
-    <t>NASCA</t>
+    <t>NAZCA</t>
+  </si>
+  <si>
+    <t>DATEM DEL MARANON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1221,8 +1221,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1232,6 +1238,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF7CE5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,7 +1260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1257,6 +1269,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1573,11 +1590,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D4F0AA-1724-BD4C-AE77-09A6E905A527}">
   <dimension ref="A1:B197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A190" sqref="A190"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2387,11 +2407,11 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>393</v>
-      </c>
-      <c r="B102" s="1" t="s">
+    <row r="102" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2731,428 +2751,428 @@
         <v>286</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+    <row r="145" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B145" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B145" s="1" t="s">
+    </row>
+    <row r="146" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="B146" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>290</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>292</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
+        <v>294</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>296</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
+        <v>298</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>300</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
+        <v>302</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>304</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>306</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
+        <v>310</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>312</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
+        <v>314</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>316</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>318</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>320</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>322</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>324</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>326</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
+        <v>328</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>330</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>332</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>334</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>336</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>338</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
+        <v>340</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>342</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>344</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>346</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>348</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>350</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
+        <v>352</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>354</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>356</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>358</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>360</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>362</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>364</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>366</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>368</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>370</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B189" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
+        <v>378</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>380</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>382</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
+        <v>384</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
+        <v>386</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>388</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>390</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
   </sheetData>
